--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_3_5.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_3_5.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1594669.095002859</v>
+        <v>-1596619.32083142</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673431</v>
+        <v>603248.4937673429</v>
       </c>
     </row>
     <row r="9">
@@ -656,28 +656,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>307.2641619774096</v>
+        <v>252.5568099896524</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,13 +704,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
@@ -719,13 +719,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>314.3293132246023</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -814,31 +814,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>112.5230191874441</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -868,7 +868,7 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>37.40475229733314</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -899,7 +899,7 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -908,7 +908,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -941,22 +941,22 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481172</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>147.0772221876004</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>199.777065017407</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -993,7 +993,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1063,19 +1063,19 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>118.96213358952</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1102,10 +1102,10 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1120,7 +1120,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>5.851478247060074</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1142,16 +1142,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>350.8567465495055</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,28 +1178,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>255.5455538197956</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1300,16 +1300,16 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>81.73375972274962</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,13 +1336,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>141.3236091729814</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1354,7 +1354,7 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1388,7 +1388,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,10 +1418,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T11" t="n">
-        <v>208.482788338502</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U11" t="n">
         <v>251.078595249801</v>
@@ -1467,7 +1467,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1525,7 +1525,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -1537,16 +1537,16 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>28.24398503385493</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1576,25 +1576,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>139.8084418793349</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1625,7 +1625,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1704,7 +1704,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1762,10 +1762,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -1777,13 +1777,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>151.6022586447274</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>208.6467665484527</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1856,13 +1856,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H17" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505273999</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1941,7 +1941,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1999,13 +1999,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>137.7107993622614</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2017,7 +2017,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>2.939815134219876</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2050,7 +2050,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -2059,16 +2059,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2242,16 +2242,16 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>48.69824310597892</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
         <v>148.9138283675361</v>
@@ -2284,25 +2284,25 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>228.4207264272473</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2336,7 +2336,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2415,7 +2415,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2473,7 +2473,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2491,7 +2491,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2521,16 +2521,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>142.7197497247932</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2539,10 +2539,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>215.9495548965046</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2573,7 +2573,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,13 +2603,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U26" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498017</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2652,7 +2652,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2713,25 +2713,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C28" t="n">
-        <v>99.11493096898715</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D28" t="n">
-        <v>80.48358288857168</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E28" t="n">
-        <v>78.30207251692849</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F28" t="n">
-        <v>77.28915789329056</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G28" t="n">
-        <v>98.36167833373692</v>
+        <v>98.36167833373695</v>
       </c>
       <c r="H28" t="n">
-        <v>80.78193823789545</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I28" t="n">
-        <v>42.28735533463131</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,10 +2758,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>41.83246227415212</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S28" t="n">
-        <v>129.7889198539629</v>
+        <v>129.7889198539626</v>
       </c>
       <c r="T28" t="n">
         <v>153.4156709287486</v>
@@ -2770,7 +2770,7 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V28" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941875</v>
       </c>
       <c r="W28" t="n">
         <v>218.3911082069503</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2950,25 +2950,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C31" t="n">
-        <v>99.11493096898715</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D31" t="n">
-        <v>80.48358288857168</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E31" t="n">
-        <v>78.30207251692849</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F31" t="n">
-        <v>77.28915789329056</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G31" t="n">
-        <v>98.36167833373692</v>
+        <v>98.36167833373663</v>
       </c>
       <c r="H31" t="n">
-        <v>80.78193823789545</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I31" t="n">
-        <v>42.2873553346313</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>41.83246227415211</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S31" t="n">
         <v>129.7889198539626</v>
@@ -3010,7 +3010,7 @@
         <v>184.0057531941873</v>
       </c>
       <c r="W31" t="n">
-        <v>218.3911082069507</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X31" t="n">
         <v>157.5777652593965</v>
@@ -3187,25 +3187,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C34" t="n">
-        <v>99.11493096898715</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D34" t="n">
-        <v>80.48358288857168</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E34" t="n">
-        <v>78.30207251692849</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F34" t="n">
-        <v>77.28915789329056</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G34" t="n">
-        <v>98.36167833373692</v>
+        <v>98.36167833373695</v>
       </c>
       <c r="H34" t="n">
-        <v>80.78193823789545</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I34" t="n">
-        <v>42.2873553346313</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.83246227415211</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S34" t="n">
         <v>129.7889198539626</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C37" t="n">
-        <v>99.11493096898721</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D37" t="n">
-        <v>80.48358288857173</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E37" t="n">
-        <v>78.30207251692855</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F37" t="n">
-        <v>77.28915789329062</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G37" t="n">
-        <v>98.36167833373696</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H37" t="n">
-        <v>80.7819382378955</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I37" t="n">
-        <v>42.28735533463136</v>
+        <v>42.28735533463131</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.83246227415216</v>
+        <v>41.83246227415212</v>
       </c>
       <c r="S37" t="n">
         <v>129.7889198539626</v>
@@ -3481,16 +3481,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V37" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W37" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X37" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y37" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="38">
@@ -3521,7 +3521,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3600,7 +3600,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3658,25 +3658,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C40" t="n">
-        <v>99.1149309689872</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D40" t="n">
-        <v>80.48358288857172</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E40" t="n">
-        <v>78.30207251692853</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F40" t="n">
-        <v>77.28915789329061</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G40" t="n">
-        <v>98.36167833373695</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H40" t="n">
-        <v>80.78193823789549</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I40" t="n">
         <v>42.28735533463134</v>
@@ -3718,16 +3718,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V40" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W40" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X40" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y40" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="41">
@@ -3758,7 +3758,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3837,7 +3837,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C43" t="n">
-        <v>99.11493096898717</v>
+        <v>99.11493096898722</v>
       </c>
       <c r="D43" t="n">
-        <v>80.48358288857169</v>
+        <v>80.48358288857175</v>
       </c>
       <c r="E43" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692856</v>
       </c>
       <c r="F43" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329064</v>
       </c>
       <c r="G43" t="n">
-        <v>98.36167833373692</v>
+        <v>98.36167833373698</v>
       </c>
       <c r="H43" t="n">
-        <v>80.78193823789546</v>
+        <v>80.78193823789552</v>
       </c>
       <c r="I43" t="n">
-        <v>42.28735533463131</v>
+        <v>42.28735533463139</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.83246227415212</v>
+        <v>41.83246227415219</v>
       </c>
       <c r="S43" t="n">
         <v>129.7889198539626</v>
@@ -3955,16 +3955,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V43" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W43" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X43" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y43" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
     <row r="44">
@@ -3995,7 +3995,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4074,7 +4074,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4135,25 +4135,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C46" t="n">
-        <v>99.11493096898717</v>
+        <v>99.11493096898714</v>
       </c>
       <c r="D46" t="n">
-        <v>80.48358288857169</v>
+        <v>80.48358288857166</v>
       </c>
       <c r="E46" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692848</v>
       </c>
       <c r="F46" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329055</v>
       </c>
       <c r="G46" t="n">
-        <v>98.36167833373692</v>
+        <v>98.36167833373689</v>
       </c>
       <c r="H46" t="n">
-        <v>80.78193823789546</v>
+        <v>80.78193823789543</v>
       </c>
       <c r="I46" t="n">
-        <v>42.28735533463131</v>
+        <v>42.2873553346313</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.83246227415212</v>
+        <v>41.83246227415211</v>
       </c>
       <c r="S46" t="n">
         <v>129.7889198539626</v>
@@ -4304,25 +4304,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>955.5060781830496</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="C2" t="n">
-        <v>586.5435612426379</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="D2" t="n">
-        <v>228.2778626358874</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="E2" t="n">
-        <v>228.2778626358874</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="F2" t="n">
-        <v>221.3323618866839</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G2" t="n">
-        <v>207.4089578252748</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
@@ -4352,28 +4352,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2520.971603332393</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T2" t="n">
-        <v>2520.971603332393</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U2" t="n">
-        <v>2267.209817970484</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="V2" t="n">
-        <v>1936.146930626913</v>
+        <v>1838.661061815299</v>
       </c>
       <c r="W2" t="n">
-        <v>1583.378275356799</v>
+        <v>1838.661061815299</v>
       </c>
       <c r="X2" t="n">
-        <v>1583.378275356799</v>
+        <v>1465.195303554219</v>
       </c>
       <c r="Y2" t="n">
-        <v>1265.873918564271</v>
+        <v>1465.195303554219</v>
       </c>
     </row>
     <row r="3">
@@ -4383,46 +4383,46 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
         <v>2525.076107152626</v>
@@ -4446,10 +4446,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4462,28 +4462,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>507.3364050629043</v>
+        <v>508.6979412980804</v>
       </c>
       <c r="C4" t="n">
-        <v>507.3364050629043</v>
+        <v>508.6979412980804</v>
       </c>
       <c r="D4" t="n">
-        <v>507.3364050629043</v>
+        <v>358.5813018857447</v>
       </c>
       <c r="E4" t="n">
-        <v>507.3364050629043</v>
+        <v>358.5813018857447</v>
       </c>
       <c r="F4" t="n">
-        <v>507.3364050629043</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="G4" t="n">
-        <v>393.6767897220517</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="H4" t="n">
-        <v>235.9284171545818</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4516,22 +4516,22 @@
         <v>728.1289842064344</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064344</v>
+        <v>690.3464061283202</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064344</v>
+        <v>690.3464061283202</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064344</v>
+        <v>690.3464061283202</v>
       </c>
       <c r="W4" t="n">
-        <v>728.1289842064344</v>
+        <v>690.3464061283202</v>
       </c>
       <c r="X4" t="n">
-        <v>728.1289842064344</v>
+        <v>690.3464061283202</v>
       </c>
       <c r="Y4" t="n">
-        <v>507.3364050629043</v>
+        <v>690.3464061283202</v>
       </c>
     </row>
     <row r="5">
@@ -4541,19 +4541,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>990.5839652830421</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="C5" t="n">
-        <v>990.5839652830421</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="D5" t="n">
-        <v>632.3182666762915</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="E5" t="n">
-        <v>632.3182666762915</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F5" t="n">
-        <v>221.3323618866839</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G5" t="n">
         <v>207.4089578252748</v>
@@ -4568,16 +4568,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4595,22 +4595,22 @@
         <v>2642.120401548716</v>
       </c>
       <c r="T5" t="n">
-        <v>2493.55755085417</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U5" t="n">
-        <v>2493.55755085417</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="V5" t="n">
-        <v>2493.55755085417</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="W5" t="n">
-        <v>2140.788895584055</v>
+        <v>2186.563601017709</v>
       </c>
       <c r="X5" t="n">
-        <v>1767.323137322976</v>
+        <v>1813.097842756629</v>
       </c>
       <c r="Y5" t="n">
-        <v>1377.183805347164</v>
+        <v>1422.958510780817</v>
       </c>
     </row>
     <row r="6">
@@ -4620,19 +4620,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
         <v>221.4284102424006</v>
@@ -4644,43 +4644,43 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641987</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598706</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4699,28 +4699,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>494.9102127870965</v>
+        <v>513.8405610245972</v>
       </c>
       <c r="C7" t="n">
-        <v>494.9102127870965</v>
+        <v>513.8405610245972</v>
       </c>
       <c r="D7" t="n">
-        <v>494.9102127870965</v>
+        <v>513.8405610245972</v>
       </c>
       <c r="E7" t="n">
-        <v>494.9102127870965</v>
+        <v>513.8405610245972</v>
       </c>
       <c r="F7" t="n">
-        <v>348.0202652891861</v>
+        <v>513.8405610245972</v>
       </c>
       <c r="G7" t="n">
-        <v>348.0202652891861</v>
+        <v>393.6767897220517</v>
       </c>
       <c r="H7" t="n">
-        <v>190.2718927217162</v>
+        <v>235.9284171545818</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4729,46 +4729,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>513.8405610245972</v>
       </c>
       <c r="T7" t="n">
-        <v>500.820796875036</v>
+        <v>513.8405610245972</v>
       </c>
       <c r="U7" t="n">
-        <v>500.820796875036</v>
+        <v>513.8405610245972</v>
       </c>
       <c r="V7" t="n">
-        <v>500.820796875036</v>
+        <v>513.8405610245972</v>
       </c>
       <c r="W7" t="n">
-        <v>500.820796875036</v>
+        <v>513.8405610245972</v>
       </c>
       <c r="X7" t="n">
-        <v>500.820796875036</v>
+        <v>513.8405610245972</v>
       </c>
       <c r="Y7" t="n">
-        <v>494.9102127870965</v>
+        <v>513.8405610245972</v>
       </c>
     </row>
     <row r="8">
@@ -4778,43 +4778,43 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1331.061315312042</v>
+        <v>837.1179892781315</v>
       </c>
       <c r="C8" t="n">
-        <v>1331.061315312042</v>
+        <v>837.1179892781315</v>
       </c>
       <c r="D8" t="n">
-        <v>972.7956167052919</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="E8" t="n">
-        <v>972.7956167052919</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F8" t="n">
-        <v>561.8097119156844</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4826,28 +4826,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T8" t="n">
-        <v>2642.120401548716</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="U8" t="n">
-        <v>2388.358616186807</v>
+        <v>2224.752638628377</v>
       </c>
       <c r="V8" t="n">
-        <v>2057.295728843236</v>
+        <v>2224.752638628377</v>
       </c>
       <c r="W8" t="n">
-        <v>1704.527073573122</v>
+        <v>1871.983983358263</v>
       </c>
       <c r="X8" t="n">
-        <v>1331.061315312042</v>
+        <v>1613.857161318065</v>
       </c>
       <c r="Y8" t="n">
-        <v>1331.061315312042</v>
+        <v>1223.717829342253</v>
       </c>
     </row>
     <row r="9">
@@ -4875,31 +4875,31 @@
         <v>221.4284102424003</v>
       </c>
       <c r="H9" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I9" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O9" t="n">
-        <v>2307.072755435191</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P9" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018222</v>
@@ -4936,25 +4936,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>222.942782082032</v>
+        <v>272.8312459770189</v>
       </c>
       <c r="C10" t="n">
-        <v>222.942782082032</v>
+        <v>272.8312459770189</v>
       </c>
       <c r="D10" t="n">
-        <v>222.942782082032</v>
+        <v>272.8312459770189</v>
       </c>
       <c r="E10" t="n">
-        <v>222.942782082032</v>
+        <v>272.8312459770189</v>
       </c>
       <c r="F10" t="n">
-        <v>222.942782082032</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I10" t="n">
         <v>53.94298182036445</v>
@@ -4966,46 +4966,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R10" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S10" t="n">
-        <v>365.6939024587809</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T10" t="n">
-        <v>222.942782082032</v>
+        <v>500.8207968750362</v>
       </c>
       <c r="U10" t="n">
-        <v>222.942782082032</v>
+        <v>500.8207968750362</v>
       </c>
       <c r="V10" t="n">
-        <v>222.942782082032</v>
+        <v>500.8207968750362</v>
       </c>
       <c r="W10" t="n">
-        <v>222.942782082032</v>
+        <v>500.8207968750362</v>
       </c>
       <c r="X10" t="n">
-        <v>222.942782082032</v>
+        <v>272.8312459770189</v>
       </c>
       <c r="Y10" t="n">
-        <v>222.942782082032</v>
+        <v>272.8312459770189</v>
       </c>
     </row>
     <row r="11">
@@ -5015,7 +5015,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C11" t="n">
         <v>2059.358867610191</v>
@@ -5024,40 +5024,40 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G11" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q11" t="n">
         <v>4801.62743720783</v>
@@ -5075,16 +5075,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W11" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="12">
@@ -5118,25 +5118,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256435</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K12" t="n">
-        <v>287.7778528277033</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L12" t="n">
-        <v>534.5429807341674</v>
+        <v>1163.495507227045</v>
       </c>
       <c r="M12" t="n">
-        <v>841.863114014129</v>
+        <v>1722.015429253975</v>
       </c>
       <c r="N12" t="n">
-        <v>1646.27469227828</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O12" t="n">
-        <v>2315.738453580939</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P12" t="n">
-        <v>2520.760934363149</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>416.2699138005285</v>
+        <v>874.9271131227918</v>
       </c>
       <c r="C13" t="n">
-        <v>247.3337308726216</v>
+        <v>705.9909301948849</v>
       </c>
       <c r="D13" t="n">
-        <v>97.21709146028584</v>
+        <v>555.8742907825491</v>
       </c>
       <c r="E13" t="n">
-        <v>97.21709146028584</v>
+        <v>555.8742907825491</v>
       </c>
       <c r="F13" t="n">
-        <v>97.21709146028584</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I13" t="n">
         <v>97.21709146028584</v>
@@ -5224,25 +5224,25 @@
         <v>1387.841167119728</v>
       </c>
       <c r="S13" t="n">
-        <v>1187.92115703528</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T13" t="n">
-        <v>1187.92115703528</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="U13" t="n">
-        <v>1187.92115703528</v>
+        <v>874.9271131227918</v>
       </c>
       <c r="V13" t="n">
-        <v>1187.92115703528</v>
+        <v>874.9271131227918</v>
       </c>
       <c r="W13" t="n">
-        <v>1046.700508672316</v>
+        <v>874.9271131227918</v>
       </c>
       <c r="X13" t="n">
-        <v>818.7109577742983</v>
+        <v>874.9271131227918</v>
       </c>
       <c r="Y13" t="n">
-        <v>597.9183786307682</v>
+        <v>874.9271131227918</v>
       </c>
     </row>
     <row r="14">
@@ -5264,7 +5264,7 @@
         <v>1315.304916405197</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155894</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G14" t="n">
         <v>488.193237080547</v>
@@ -5279,7 +5279,7 @@
         <v>365.8813331823785</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795206</v>
@@ -5294,7 +5294,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q14" t="n">
         <v>4801.62743720783</v>
@@ -5358,19 +5358,19 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K15" t="n">
-        <v>674.4285624571609</v>
+        <v>644.6755122555215</v>
       </c>
       <c r="L15" t="n">
-        <v>921.1936903636249</v>
+        <v>891.4406401619856</v>
       </c>
       <c r="M15" t="n">
-        <v>1228.513823643586</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N15" t="n">
-        <v>1558.376451307619</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O15" t="n">
-        <v>1837.916516526316</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P15" t="n">
         <v>2328.464088060424</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>524.5778132641556</v>
+        <v>562.7003690904323</v>
       </c>
       <c r="C16" t="n">
-        <v>355.6416303362487</v>
+        <v>562.7003690904323</v>
       </c>
       <c r="D16" t="n">
-        <v>355.6416303362487</v>
+        <v>562.7003690904323</v>
       </c>
       <c r="E16" t="n">
-        <v>355.6416303362487</v>
+        <v>562.7003690904323</v>
       </c>
       <c r="F16" t="n">
-        <v>208.7516828383384</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="G16" t="n">
-        <v>208.7516828383384</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H16" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I16" t="n">
         <v>97.21709146028584</v>
@@ -5458,28 +5458,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T16" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U16" t="n">
-        <v>1187.92115703528</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V16" t="n">
-        <v>1034.787562444646</v>
+        <v>955.1031435655738</v>
       </c>
       <c r="W16" t="n">
-        <v>745.3703924076857</v>
+        <v>744.3488339206721</v>
       </c>
       <c r="X16" t="n">
-        <v>745.3703924076857</v>
+        <v>744.3488339206721</v>
       </c>
       <c r="Y16" t="n">
-        <v>524.5778132641556</v>
+        <v>744.3488339206721</v>
       </c>
     </row>
     <row r="17">
@@ -5495,37 +5495,37 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805462</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822454</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M17" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O17" t="n">
         <v>3889.732883643323</v>
@@ -5592,25 +5592,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K18" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L18" t="n">
-        <v>534.5429807341673</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M18" t="n">
-        <v>1302.911127126629</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N18" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O18" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P18" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q18" t="n">
         <v>2623.573505376138</v>
@@ -5647,22 +5647,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>268.361923377051</v>
+        <v>554.6108700904388</v>
       </c>
       <c r="C19" t="n">
-        <v>268.361923377051</v>
+        <v>415.509052552801</v>
       </c>
       <c r="D19" t="n">
-        <v>268.361923377051</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="E19" t="n">
-        <v>268.361923377051</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F19" t="n">
-        <v>268.361923377051</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G19" t="n">
-        <v>100.1866016968716</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H19" t="n">
         <v>97.21709146028584</v>
@@ -5698,25 +5698,25 @@
         <v>1387.841167119728</v>
       </c>
       <c r="S19" t="n">
-        <v>1187.92115703528</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T19" t="n">
-        <v>1187.92115703528</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="U19" t="n">
-        <v>898.7925182488382</v>
+        <v>1098.712528333286</v>
       </c>
       <c r="V19" t="n">
-        <v>898.7925182488382</v>
+        <v>844.0280401273993</v>
       </c>
       <c r="W19" t="n">
-        <v>898.7925182488382</v>
+        <v>554.6108700904388</v>
       </c>
       <c r="X19" t="n">
-        <v>670.8029673508208</v>
+        <v>554.6108700904388</v>
       </c>
       <c r="Y19" t="n">
-        <v>450.0103882072907</v>
+        <v>554.6108700904388</v>
       </c>
     </row>
     <row r="20">
@@ -5741,34 +5741,34 @@
         <v>904.319011615589</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H20" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M20" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q20" t="n">
         <v>4801.62743720783</v>
@@ -5829,22 +5829,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K21" t="n">
-        <v>549.5984374701561</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L21" t="n">
-        <v>891.4406401619858</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M21" t="n">
-        <v>1198.760773441947</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N21" t="n">
-        <v>1528.62340110598</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O21" t="n">
-        <v>1808.163466324677</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P21" t="n">
         <v>2328.464088060424</v>
@@ -5884,19 +5884,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>542.438140992646</v>
+        <v>465.0005661440158</v>
       </c>
       <c r="C22" t="n">
-        <v>542.438140992646</v>
+        <v>465.0005661440158</v>
       </c>
       <c r="D22" t="n">
-        <v>542.438140992646</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="E22" t="n">
-        <v>394.5250474102529</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="F22" t="n">
-        <v>247.6350999123426</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="G22" t="n">
         <v>247.6350999123426</v>
@@ -5932,28 +5932,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S22" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T22" t="n">
-        <v>1498.916270557902</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="U22" t="n">
-        <v>1268.188264065733</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="V22" t="n">
-        <v>1013.503775859846</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="W22" t="n">
-        <v>724.0866058228858</v>
+        <v>874.6385818722729</v>
       </c>
       <c r="X22" t="n">
-        <v>724.0866058228858</v>
+        <v>646.6490309742555</v>
       </c>
       <c r="Y22" t="n">
-        <v>724.0866058228858</v>
+        <v>646.6490309742555</v>
       </c>
     </row>
     <row r="23">
@@ -5966,67 +5966,67 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M23" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T23" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
         <v>3205.060556590537</v>
@@ -6066,25 +6066,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K24" t="n">
-        <v>549.5984374701561</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L24" t="n">
-        <v>1163.495507227045</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M24" t="n">
-        <v>1722.015429253975</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N24" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O24" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P24" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q24" t="n">
         <v>2623.573505376138</v>
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="C25" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="D25" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="E25" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="F25" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H25" t="n">
         <v>97.21709146028584</v>
@@ -6169,28 +6169,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>1187.92115703528</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T25" t="n">
-        <v>1043.759793676903</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U25" t="n">
-        <v>1043.759793676903</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="V25" t="n">
-        <v>789.0753054710162</v>
+        <v>755.183133481126</v>
       </c>
       <c r="W25" t="n">
-        <v>499.6581354340557</v>
+        <v>465.7659634441654</v>
       </c>
       <c r="X25" t="n">
-        <v>499.6581354340557</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="Y25" t="n">
-        <v>278.8655562905255</v>
+        <v>247.6350999123426</v>
       </c>
     </row>
     <row r="26">
@@ -6200,7 +6200,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C26" t="n">
         <v>2059.358867610191</v>
@@ -6209,25 +6209,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H26" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J26" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795206</v>
@@ -6245,13 +6245,13 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T26" t="n">
         <v>4515.972600141868</v>
@@ -6260,16 +6260,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W26" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="27">
@@ -6300,7 +6300,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J27" t="n">
         <v>263.5382936126482</v>
@@ -6312,7 +6312,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M27" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N27" t="n">
         <v>1558.376451307619</v>
@@ -6321,10 +6321,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P27" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q27" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R27" t="n">
         <v>2623.573505376138</v>
@@ -6358,19 +6358,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>659.4602391108328</v>
+        <v>659.4602391108332</v>
       </c>
       <c r="C28" t="n">
-        <v>559.3441472229671</v>
+        <v>559.3441472229673</v>
       </c>
       <c r="D28" t="n">
-        <v>478.0475988506724</v>
+        <v>478.0475988506726</v>
       </c>
       <c r="E28" t="n">
-        <v>398.9545963083204</v>
+        <v>398.9545963083206</v>
       </c>
       <c r="F28" t="n">
-        <v>320.8847398504512</v>
+        <v>320.8847398504513</v>
       </c>
       <c r="G28" t="n">
         <v>221.5295092103129</v>
@@ -6379,7 +6379,7 @@
         <v>139.9315917982973</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J28" t="n">
         <v>177.05035515254</v>
@@ -6388,7 +6388,7 @@
         <v>394.6863306254957</v>
       </c>
       <c r="L28" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649692</v>
       </c>
       <c r="M28" t="n">
         <v>1048.866260860496</v>
@@ -6403,7 +6403,7 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q28" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R28" t="n">
         <v>1996.265827986523</v>
@@ -6424,10 +6424,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X28" t="n">
-        <v>924.2611010045205</v>
+        <v>924.2611010045208</v>
       </c>
       <c r="Y28" t="n">
-        <v>772.2886129010315</v>
+        <v>772.2886129010318</v>
       </c>
     </row>
     <row r="29">
@@ -6437,34 +6437,34 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E29" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G29" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I29" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795207</v>
@@ -6476,7 +6476,7 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
         <v>4454.632848899127</v>
@@ -6488,25 +6488,25 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T29" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="30">
@@ -6598,16 +6598,16 @@
         <v>659.4602391108328</v>
       </c>
       <c r="C31" t="n">
-        <v>559.3441472229671</v>
+        <v>559.344147222967</v>
       </c>
       <c r="D31" t="n">
-        <v>478.0475988506724</v>
+        <v>478.0475988506723</v>
       </c>
       <c r="E31" t="n">
-        <v>398.9545963083204</v>
+        <v>398.9545963083203</v>
       </c>
       <c r="F31" t="n">
-        <v>320.8847398504512</v>
+        <v>320.884739850451</v>
       </c>
       <c r="G31" t="n">
         <v>221.5295092103129</v>
@@ -6622,10 +6622,10 @@
         <v>177.05035515254</v>
       </c>
       <c r="K31" t="n">
-        <v>394.6863306254958</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L31" t="n">
-        <v>709.8489468649693</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M31" t="n">
         <v>1048.866260860496</v>
@@ -6640,7 +6640,7 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q31" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R31" t="n">
         <v>1996.265827986523</v>
@@ -6655,7 +6655,7 @@
         <v>1489.892037025262</v>
       </c>
       <c r="V31" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W31" t="n">
         <v>1083.430560862497</v>
@@ -6677,19 +6677,19 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H32" t="n">
         <v>179.8222783822457</v>
@@ -6698,10 +6698,10 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795207</v>
@@ -6713,7 +6713,7 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
         <v>4454.632848899127</v>
@@ -6725,22 +6725,22 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T32" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y32" t="n">
         <v>2814.921224614724</v>
@@ -6777,22 +6777,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K33" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L33" t="n">
-        <v>534.5429807341674</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M33" t="n">
-        <v>841.863114014129</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N33" t="n">
-        <v>1646.27469227828</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O33" t="n">
-        <v>1925.814757496977</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P33" t="n">
         <v>2328.464088060424</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.4602391108331</v>
+        <v>659.4602391108328</v>
       </c>
       <c r="C34" t="n">
-        <v>559.3441472229673</v>
+        <v>559.344147222967</v>
       </c>
       <c r="D34" t="n">
-        <v>478.0475988506727</v>
+        <v>478.0475988506723</v>
       </c>
       <c r="E34" t="n">
-        <v>398.9545963083206</v>
+        <v>398.9545963083203</v>
       </c>
       <c r="F34" t="n">
-        <v>320.8847398504514</v>
+        <v>320.8847398504513</v>
       </c>
       <c r="G34" t="n">
-        <v>221.5295092103129</v>
+        <v>221.529509210313</v>
       </c>
       <c r="H34" t="n">
         <v>139.9315917982973</v>
@@ -6874,13 +6874,13 @@
         <v>1688.186490350129</v>
       </c>
       <c r="P34" t="n">
-        <v>1932.236826184155</v>
+        <v>1932.236826184156</v>
       </c>
       <c r="Q34" t="n">
         <v>2038.520840384656</v>
       </c>
       <c r="R34" t="n">
-        <v>1996.265827986522</v>
+        <v>1996.265827986523</v>
       </c>
       <c r="S34" t="n">
         <v>1865.165908942116</v>
@@ -6898,10 +6898,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X34" t="n">
-        <v>924.2611010045207</v>
+        <v>924.2611010045205</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.2886129010317</v>
+        <v>772.2886129010315</v>
       </c>
     </row>
     <row r="35">
@@ -6911,13 +6911,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
         <v>1315.304916405196</v>
@@ -6926,7 +6926,7 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805471</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H35" t="n">
         <v>179.8222783822462</v>
@@ -6968,19 +6968,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="36">
@@ -7014,22 +7014,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K36" t="n">
-        <v>549.5984374701561</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L36" t="n">
-        <v>796.3635653766202</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M36" t="n">
-        <v>1103.683698656582</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N36" t="n">
-        <v>1433.546326320615</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O36" t="n">
-        <v>1808.163466324677</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P36" t="n">
         <v>2328.464088060424</v>
@@ -7069,34 +7069,34 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>659.4602391108324</v>
+        <v>659.4602391108332</v>
       </c>
       <c r="C37" t="n">
-        <v>559.3441472229665</v>
+        <v>559.3441472229672</v>
       </c>
       <c r="D37" t="n">
-        <v>478.0475988506719</v>
+        <v>478.0475988506725</v>
       </c>
       <c r="E37" t="n">
-        <v>398.9545963083199</v>
+        <v>398.9545963083204</v>
       </c>
       <c r="F37" t="n">
-        <v>320.8847398504507</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G37" t="n">
-        <v>221.5295092103123</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H37" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J37" t="n">
         <v>177.05035515254</v>
       </c>
       <c r="K37" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254955</v>
       </c>
       <c r="L37" t="n">
         <v>709.8489468649691</v>
@@ -7114,7 +7114,7 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q37" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R37" t="n">
         <v>1996.265827986523</v>
@@ -7132,13 +7132,13 @@
         <v>1304.027639859416</v>
       </c>
       <c r="W37" t="n">
-        <v>1083.430560862496</v>
+        <v>1083.430560862497</v>
       </c>
       <c r="X37" t="n">
-        <v>924.26110100452</v>
+        <v>924.2611010045208</v>
       </c>
       <c r="Y37" t="n">
-        <v>772.288612901031</v>
+        <v>772.2886129010318</v>
       </c>
     </row>
     <row r="38">
@@ -7151,28 +7151,28 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K38" t="n">
         <v>889.2841917514085</v>
@@ -7205,16 +7205,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y38" t="n">
         <v>2814.921224614724</v>
@@ -7260,7 +7260,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M39" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N39" t="n">
         <v>1558.376451307619</v>
@@ -7269,10 +7269,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P39" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q39" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>659.4602391108335</v>
+        <v>659.4602391108328</v>
       </c>
       <c r="C40" t="n">
-        <v>559.3441472229676</v>
+        <v>559.344147222967</v>
       </c>
       <c r="D40" t="n">
-        <v>478.047598850673</v>
+        <v>478.0475988506723</v>
       </c>
       <c r="E40" t="n">
-        <v>398.9545963083207</v>
+        <v>398.9545963083202</v>
       </c>
       <c r="F40" t="n">
-        <v>320.8847398504514</v>
+        <v>320.884739850451</v>
       </c>
       <c r="G40" t="n">
-        <v>221.5295092103131</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H40" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J40" t="n">
-        <v>177.0503551525405</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K40" t="n">
-        <v>394.6863306254962</v>
+        <v>394.6863306254955</v>
       </c>
       <c r="L40" t="n">
-        <v>709.8489468649699</v>
+        <v>709.848946864969</v>
       </c>
       <c r="M40" t="n">
-        <v>1048.866260860497</v>
+        <v>1048.866260860496</v>
       </c>
       <c r="N40" t="n">
-        <v>1386.860941116389</v>
+        <v>1386.860941116388</v>
       </c>
       <c r="O40" t="n">
-        <v>1688.18649035013</v>
+        <v>1688.186490350129</v>
       </c>
       <c r="P40" t="n">
-        <v>1932.236826184157</v>
+        <v>1932.236826184156</v>
       </c>
       <c r="Q40" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R40" t="n">
         <v>1996.265827986523</v>
       </c>
       <c r="S40" t="n">
-        <v>1865.165908942117</v>
+        <v>1865.165908942116</v>
       </c>
       <c r="T40" t="n">
         <v>1710.200584771663</v>
       </c>
       <c r="U40" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V40" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W40" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X40" t="n">
-        <v>924.2611010045212</v>
+        <v>924.2611010045205</v>
       </c>
       <c r="Y40" t="n">
-        <v>772.2886129010321</v>
+        <v>772.2886129010315</v>
       </c>
     </row>
     <row r="41">
@@ -7388,70 +7388,70 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155893</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J41" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M41" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O41" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T41" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y41" t="n">
         <v>2814.921224614724</v>
@@ -7485,7 +7485,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J42" t="n">
         <v>263.5382936126482</v>
@@ -7494,22 +7494,22 @@
         <v>674.4285624571609</v>
       </c>
       <c r="L42" t="n">
-        <v>1099.417155020476</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M42" t="n">
-        <v>1406.737288300438</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N42" t="n">
-        <v>1736.599915964471</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O42" t="n">
-        <v>2016.139981183168</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P42" t="n">
-        <v>2536.440602918915</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q42" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R42" t="n">
         <v>2623.573505376138</v>
@@ -7543,46 +7543,46 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>659.460239110833</v>
+        <v>659.4602391108324</v>
       </c>
       <c r="C43" t="n">
-        <v>559.3441472229671</v>
+        <v>559.3441472229665</v>
       </c>
       <c r="D43" t="n">
-        <v>478.0475988506724</v>
+        <v>478.0475988506718</v>
       </c>
       <c r="E43" t="n">
-        <v>398.9545963083201</v>
+        <v>398.9545963083199</v>
       </c>
       <c r="F43" t="n">
         <v>320.8847398504506</v>
       </c>
       <c r="G43" t="n">
-        <v>221.5295092103123</v>
+        <v>221.5295092103122</v>
       </c>
       <c r="H43" t="n">
-        <v>139.9315917982967</v>
+        <v>139.9315917982974</v>
       </c>
       <c r="I43" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J43" t="n">
-        <v>177.0503551525401</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K43" t="n">
-        <v>394.6863306254958</v>
+        <v>394.6863306254956</v>
       </c>
       <c r="L43" t="n">
-        <v>709.8489468649693</v>
+        <v>709.848946864969</v>
       </c>
       <c r="M43" t="n">
-        <v>1048.866260860497</v>
+        <v>1048.866260860496</v>
       </c>
       <c r="N43" t="n">
         <v>1386.860941116388</v>
       </c>
       <c r="O43" t="n">
-        <v>1688.18649035013</v>
+        <v>1688.186490350129</v>
       </c>
       <c r="P43" t="n">
         <v>1932.236826184156</v>
@@ -7591,7 +7591,7 @@
         <v>2038.520840384656</v>
       </c>
       <c r="R43" t="n">
-        <v>1996.265827986523</v>
+        <v>1996.265827986522</v>
       </c>
       <c r="S43" t="n">
         <v>1865.165908942116</v>
@@ -7609,10 +7609,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X43" t="n">
-        <v>924.2611010045206</v>
+        <v>924.2611010045202</v>
       </c>
       <c r="Y43" t="n">
-        <v>772.2886129010316</v>
+        <v>772.2886129010311</v>
       </c>
     </row>
     <row r="44">
@@ -7625,70 +7625,70 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155893</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805462</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J44" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M44" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O44" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T44" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y44" t="n">
         <v>2814.921224614724</v>
@@ -7722,7 +7722,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J45" t="n">
         <v>263.5382936126482</v>
@@ -7734,7 +7734,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M45" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N45" t="n">
         <v>1558.376451307619</v>
@@ -7743,10 +7743,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P45" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q45" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>659.4602391108332</v>
+        <v>659.4602391108326</v>
       </c>
       <c r="C46" t="n">
-        <v>559.3441472229673</v>
+        <v>559.3441472229669</v>
       </c>
       <c r="D46" t="n">
-        <v>478.0475988506727</v>
+        <v>478.0475988506722</v>
       </c>
       <c r="E46" t="n">
-        <v>398.9545963083207</v>
+        <v>398.9545963083202</v>
       </c>
       <c r="F46" t="n">
-        <v>320.8847398504514</v>
+        <v>320.884739850451</v>
       </c>
       <c r="G46" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103127</v>
       </c>
       <c r="H46" t="n">
         <v>139.9315917982973</v>
@@ -7807,28 +7807,28 @@
         <v>177.05035515254</v>
       </c>
       <c r="K46" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254951</v>
       </c>
       <c r="L46" t="n">
-        <v>709.8489468649692</v>
+        <v>709.8489468649686</v>
       </c>
       <c r="M46" t="n">
         <v>1048.866260860496</v>
       </c>
       <c r="N46" t="n">
-        <v>1386.860941116388</v>
+        <v>1386.860941116387</v>
       </c>
       <c r="O46" t="n">
-        <v>1688.18649035013</v>
+        <v>1688.186490350129</v>
       </c>
       <c r="P46" t="n">
-        <v>1932.236826184157</v>
+        <v>1932.236826184156</v>
       </c>
       <c r="Q46" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R46" t="n">
-        <v>1996.265827986523</v>
+        <v>1996.265827986522</v>
       </c>
       <c r="S46" t="n">
         <v>1865.165908942116</v>
@@ -7840,16 +7840,16 @@
         <v>1489.892037025262</v>
       </c>
       <c r="V46" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W46" t="n">
-        <v>1083.430560862497</v>
+        <v>1083.430560862496</v>
       </c>
       <c r="X46" t="n">
-        <v>924.2611010045209</v>
+        <v>924.2611010045204</v>
       </c>
       <c r="Y46" t="n">
-        <v>772.2886129010318</v>
+        <v>772.2886129010312</v>
       </c>
     </row>
   </sheetData>
@@ -8055,7 +8055,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8070,10 +8070,10 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O3" t="n">
-        <v>350.4438349360584</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>199.0269485415591</v>
       </c>
       <c r="Q3" t="n">
         <v>210.0772877358491</v>
@@ -8292,10 +8292,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719077</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8313,7 +8313,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>90.64146763747169</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8529,7 +8529,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8547,10 +8547,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
-        <v>199.0269485415596</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951776</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8769,28 +8769,28 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>253.7371603504737</v>
       </c>
       <c r="N12" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>15.83804904622824</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9006,7 +9006,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>234.4116509503166</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9021,13 +9021,13 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>288.4091825776754</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9170,7 +9170,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M17" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928324</v>
       </c>
       <c r="N17" t="n">
         <v>437.3469244119842</v>
@@ -9240,31 +9240,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>423.3376789165117</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9477,13 +9477,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>96.03744927814716</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -9495,7 +9495,7 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
@@ -9659,7 +9659,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9714,16 +9714,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>253.7371603504736</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
@@ -9732,13 +9732,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9969,13 +9969,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>277.6717966208067</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10133,7 +10133,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10370,7 +10370,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10425,10 +10425,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -10437,13 +10437,13 @@
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>199.623080587109</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
@@ -10592,7 +10592,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928324</v>
       </c>
       <c r="N35" t="n">
         <v>437.3469244119842</v>
@@ -10607,7 +10607,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10662,7 +10662,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
         <v>264.4652370125786</v>
@@ -10677,10 +10677,10 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>96.03744927814694</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
@@ -10844,7 +10844,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10917,13 +10917,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>277.6717966208064</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11066,7 +11066,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>449.5135334928324</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N41" t="n">
         <v>437.3469244119842</v>
@@ -11081,7 +11081,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298386</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11142,7 +11142,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>180.0237016735871</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -11154,13 +11154,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>318.4627686399372</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11318,7 +11318,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298386</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11391,13 +11391,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>277.6717966208064</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -22544,7 +22544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>130.1770316738281</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -22553,7 +22553,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -22613,7 +22613,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>71.90862543145126</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -22702,10 +22702,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -22714,10 +22714,10 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>46.42782949008279</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -22753,22 +22753,22 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>187.6303531607511</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -23413,7 +23413,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23425,16 +23425,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>117.1770629890763</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23464,25 +23464,25 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>146.7145564572561</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23650,10 +23650,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -23665,13 +23665,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,28 +23698,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>100.5353846791006</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>77.87623178813834</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23887,13 +23887,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>29.53602173636645</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -23905,7 +23905,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>145.9740132333162</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
         <v>110.419245464272</v>
@@ -23938,7 +23938,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
         <v>221.5475610583892</v>
@@ -23947,16 +23947,16 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24130,16 +24130,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>99.91722991223344</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -24172,25 +24172,25 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>57.81662597133004</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24361,7 +24361,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -24379,7 +24379,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>110.419245464272</v>
@@ -24409,16 +24409,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>78.82781133359603</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24427,10 +24427,10 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>9.760100492532558</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -26320,40 +26320,40 @@
         <v>102630.2212330354</v>
       </c>
       <c r="E2" t="n">
-        <v>97757.26493442718</v>
+        <v>97757.26493442722</v>
       </c>
       <c r="F2" t="n">
-        <v>97757.26493442716</v>
+        <v>97757.26493442722</v>
       </c>
       <c r="G2" t="n">
+        <v>97757.26493442721</v>
+      </c>
+      <c r="H2" t="n">
         <v>97757.26493442719</v>
       </c>
-      <c r="H2" t="n">
-        <v>97757.26493442718</v>
-      </c>
       <c r="I2" t="n">
-        <v>97757.26493442721</v>
+        <v>97757.26493442719</v>
       </c>
       <c r="J2" t="n">
+        <v>102630.2212330356</v>
+      </c>
+      <c r="K2" t="n">
         <v>102630.2212330355</v>
       </c>
-      <c r="K2" t="n">
+      <c r="L2" t="n">
+        <v>102630.2212330355</v>
+      </c>
+      <c r="M2" t="n">
         <v>102630.2212330356</v>
       </c>
-      <c r="L2" t="n">
-        <v>102630.2212330356</v>
-      </c>
-      <c r="M2" t="n">
+      <c r="N2" t="n">
         <v>102630.2212330355</v>
-      </c>
-      <c r="N2" t="n">
-        <v>102630.2212330356</v>
       </c>
       <c r="O2" t="n">
         <v>102630.2212330356</v>
       </c>
       <c r="P2" t="n">
-        <v>102630.2212330356</v>
+        <v>102630.2212330355</v>
       </c>
     </row>
     <row r="3">
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768961</v>
+        <v>525160.036476896</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26396,16 +26396,16 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338371</v>
+        <v>134801.0152338372</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>54505.51210371256</v>
+        <v>54505.51210371248</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>6.821210263296962e-11</v>
       </c>
     </row>
     <row r="4">
@@ -26430,7 +26430,7 @@
         <v>22174.60758687071</v>
       </c>
       <c r="G4" t="n">
-        <v>22174.60758687074</v>
+        <v>22174.60758687072</v>
       </c>
       <c r="H4" t="n">
         <v>22174.60758687071</v>
@@ -26439,25 +26439,25 @@
         <v>22174.60758687071</v>
       </c>
       <c r="J4" t="n">
-        <v>44593.3948281912</v>
+        <v>44593.39482819116</v>
       </c>
       <c r="K4" t="n">
+        <v>44593.39482819119</v>
+      </c>
+      <c r="L4" t="n">
+        <v>44593.39482819119</v>
+      </c>
+      <c r="M4" t="n">
         <v>44593.39482819122</v>
       </c>
-      <c r="L4" t="n">
-        <v>44593.3948281912</v>
-      </c>
-      <c r="M4" t="n">
-        <v>44593.39482819118</v>
-      </c>
       <c r="N4" t="n">
-        <v>44593.39482819118</v>
+        <v>44593.39482819119</v>
       </c>
       <c r="O4" t="n">
-        <v>44593.3948281912</v>
+        <v>44593.39482819119</v>
       </c>
       <c r="P4" t="n">
-        <v>44593.39482819119</v>
+        <v>44593.39482819122</v>
       </c>
     </row>
     <row r="5">
@@ -26476,22 +26476,22 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
+        <v>91987.32594871662</v>
+      </c>
+      <c r="F5" t="n">
         <v>91987.32594871664</v>
       </c>
-      <c r="F5" t="n">
-        <v>91987.32594871662</v>
-      </c>
       <c r="G5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="H5" t="n">
         <v>91987.32594871662</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="J5" t="n">
-        <v>97715.10582002539</v>
+        <v>97715.1058200254</v>
       </c>
       <c r="K5" t="n">
         <v>97715.10582002539</v>
@@ -26506,10 +26506,10 @@
         <v>97715.10582002539</v>
       </c>
       <c r="O5" t="n">
-        <v>97715.10582002539</v>
+        <v>97715.1058200254</v>
       </c>
       <c r="P5" t="n">
-        <v>97715.10582002539</v>
+        <v>97715.1058200254</v>
       </c>
     </row>
     <row r="6">
@@ -26519,7 +26519,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-715154.4162124967</v>
+        <v>-715270.3690764032</v>
       </c>
       <c r="C6" t="n">
         <v>-145861.7246168985</v>
@@ -26528,22 +26528,22 @@
         <v>-145861.7246168985</v>
       </c>
       <c r="E6" t="n">
-        <v>-541564.7050780563</v>
+        <v>-541662.1642040283</v>
       </c>
       <c r="F6" t="n">
-        <v>-16404.66860116017</v>
+        <v>-16502.12772713229</v>
       </c>
       <c r="G6" t="n">
-        <v>-16404.66860116017</v>
+        <v>-16502.12772713232</v>
       </c>
       <c r="H6" t="n">
-        <v>-16404.66860116016</v>
+        <v>-16502.12772713231</v>
       </c>
       <c r="I6" t="n">
-        <v>-16404.66860116014</v>
+        <v>-16502.12772713231</v>
       </c>
       <c r="J6" t="n">
-        <v>-270607.0107114865</v>
+        <v>-270607.0107114866</v>
       </c>
       <c r="K6" t="n">
         <v>-39678.27941518104</v>
@@ -26552,16 +26552,16 @@
         <v>-39678.27941518104</v>
       </c>
       <c r="M6" t="n">
-        <v>-174479.2946490181</v>
+        <v>-174479.2946490182</v>
       </c>
       <c r="N6" t="n">
-        <v>-39678.27941518102</v>
+        <v>-39678.27941518104</v>
       </c>
       <c r="O6" t="n">
-        <v>-94183.79151889359</v>
+        <v>-94183.79151889353</v>
       </c>
       <c r="P6" t="n">
-        <v>-39678.27941518103</v>
+        <v>-39678.27941518117</v>
       </c>
     </row>
   </sheetData>
@@ -26707,25 +26707,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K2" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L2" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M2" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N2" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O2" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="P2" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
     </row>
     <row r="3">
@@ -26738,28 +26738,28 @@
         <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
+        <v>830.3824054541002</v>
+      </c>
+      <c r="F3" t="n">
         <v>830.3824054541003</v>
       </c>
-      <c r="F3" t="n">
-        <v>830.3824054541002</v>
-      </c>
       <c r="G3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="H3" t="n">
         <v>830.3824054541002</v>
       </c>
       <c r="I3" t="n">
+        <v>830.3824054541002</v>
+      </c>
+      <c r="J3" t="n">
         <v>830.3824054541003</v>
-      </c>
-      <c r="J3" t="n">
-        <v>830.3824054541002</v>
       </c>
       <c r="K3" t="n">
         <v>830.3824054541003</v>
@@ -26771,13 +26771,13 @@
         <v>830.3824054541003</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
     </row>
     <row r="4">
@@ -26929,7 +26929,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26944,10 +26944,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>8.526512829121202e-14</v>
       </c>
     </row>
     <row r="3">
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370137</v>
+        <v>452.6387412370135</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545559</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27376,28 +27376,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>75.46967968607095</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27424,13 +27424,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27439,13 +27439,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27537,10 +27537,10 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -27549,16 +27549,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>54.78678307160683</v>
+        <v>120.8819727689681</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27585,7 +27585,7 @@
         <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -27594,16 +27594,16 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27619,7 +27619,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -27628,7 +27628,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
@@ -27667,16 +27667,16 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>69.37109817005737</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>149.4639037000061</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -27783,10 +27783,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>48.34766866953092</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -27795,7 +27795,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853701</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,16 +27816,16 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
         <v>286.2818742419777</v>
@@ -27840,7 +27840,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>212.7331751050347</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27850,7 +27850,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -27862,16 +27862,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>62.9274234712895</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,28 +27898,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>114.1855468586735</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28020,19 +28020,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>63.68728830018162</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28056,13 +28056,13 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>83.71149628510287</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>286.2818742419777</v>
@@ -28074,7 +28074,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -28576,13 +28576,13 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>7.815970093361102e-13</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C28" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D28" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E28" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F28" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G28" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H28" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I28" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J28" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K28" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L28" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M28" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N28" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O28" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P28" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q28" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R28" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S28" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T28" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U28" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V28" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W28" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X28" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y28" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="29">
@@ -29560,7 +29560,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C31" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D31" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E31" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F31" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G31" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H31" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I31" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J31" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K31" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L31" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M31" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N31" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O31" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P31" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q31" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R31" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S31" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T31" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U31" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V31" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W31" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X31" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y31" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="35">
@@ -30034,7 +30034,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>3.979039320256561e-13</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="38">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="C43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="D43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="E43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="F43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="G43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="H43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="I43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="J43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="K43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="L43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="M43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="N43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="O43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="P43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="Q43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="R43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="S43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="T43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="U43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="V43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="W43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="X43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="Y43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="C46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="D46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="E46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="F46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="G46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="H46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="I46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="J46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="K46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="L46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="M46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="N46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="O46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="P46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="Q46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="R46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="S46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="T46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="U46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="V46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="W46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="X46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="Y46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
     </row>
   </sheetData>
@@ -31276,46 +31276,46 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31382,22 +31382,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,19 +31434,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31458,22 +31458,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31519,19 +31519,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
@@ -31546,13 +31546,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31592,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31619,22 +31619,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,16 +31671,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K10" t="n">
         <v>79.14039391302239</v>
@@ -31695,16 +31695,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P10" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
@@ -31750,16 +31750,16 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K11" t="n">
         <v>424.6341946041488</v>
@@ -31768,7 +31768,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N11" t="n">
         <v>595.6470695927186</v>
@@ -31777,7 +31777,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q11" t="n">
         <v>360.4902833647496</v>
@@ -31786,7 +31786,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31829,7 +31829,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
@@ -31838,7 +31838,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K12" t="n">
         <v>288.4168775622982</v>
@@ -31847,10 +31847,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O12" t="n">
         <v>424.9599466855526</v>
@@ -31865,10 +31865,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T12" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31929,7 +31929,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O13" t="n">
         <v>211.6522236065632</v>
@@ -31941,16 +31941,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,16 +31987,16 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K14" t="n">
         <v>424.6341946041488</v>
@@ -32005,7 +32005,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N14" t="n">
         <v>595.6470695927186</v>
@@ -32014,7 +32014,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q14" t="n">
         <v>360.4902833647496</v>
@@ -32023,7 +32023,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32066,7 +32066,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
@@ -32075,7 +32075,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K15" t="n">
         <v>288.4168775622982</v>
@@ -32084,10 +32084,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O15" t="n">
         <v>424.9599466855526</v>
@@ -32102,10 +32102,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32166,7 +32166,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O16" t="n">
         <v>211.6522236065632</v>
@@ -32178,16 +32178,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,16 +32224,16 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K17" t="n">
         <v>424.6341946041488</v>
@@ -32242,7 +32242,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N17" t="n">
         <v>595.6470695927186</v>
@@ -32251,7 +32251,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q17" t="n">
         <v>360.4902833647496</v>
@@ -32260,7 +32260,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32303,7 +32303,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
@@ -32312,7 +32312,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K18" t="n">
         <v>288.4168775622982</v>
@@ -32321,10 +32321,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O18" t="n">
         <v>424.9599466855526</v>
@@ -32339,10 +32339,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T18" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32403,7 +32403,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065632</v>
@@ -32415,16 +32415,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32698,16 +32698,16 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K23" t="n">
         <v>424.6341946041488</v>
@@ -32716,7 +32716,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N23" t="n">
         <v>595.6470695927186</v>
@@ -32725,7 +32725,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q23" t="n">
         <v>360.4902833647496</v>
@@ -32734,7 +32734,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32777,7 +32777,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
@@ -32786,7 +32786,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K24" t="n">
         <v>288.4168775622982</v>
@@ -32795,10 +32795,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O24" t="n">
         <v>424.9599466855526</v>
@@ -32813,10 +32813,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T24" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32877,7 +32877,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32889,16 +32889,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,16 +32935,16 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K26" t="n">
         <v>424.6341946041488</v>
@@ -32953,7 +32953,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N26" t="n">
         <v>595.6470695927186</v>
@@ -32962,7 +32962,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q26" t="n">
         <v>360.4902833647496</v>
@@ -32971,7 +32971,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33014,7 +33014,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
@@ -33023,7 +33023,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K27" t="n">
         <v>288.4168775622982</v>
@@ -33032,10 +33032,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O27" t="n">
         <v>424.9599466855526</v>
@@ -33050,10 +33050,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T27" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33114,7 +33114,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33126,16 +33126,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33883,16 +33883,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K38" t="n">
         <v>424.6341946041488</v>
@@ -33901,7 +33901,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N38" t="n">
         <v>595.6470695927186</v>
@@ -33910,7 +33910,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q38" t="n">
         <v>360.4902833647496</v>
@@ -33919,7 +33919,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33962,7 +33962,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
@@ -33971,7 +33971,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K39" t="n">
         <v>288.4168775622982</v>
@@ -33980,10 +33980,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O39" t="n">
         <v>424.9599466855526</v>
@@ -33998,10 +33998,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T39" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34062,7 +34062,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34074,16 +34074,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,16 +34120,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K41" t="n">
         <v>424.6341946041488</v>
@@ -34138,7 +34138,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N41" t="n">
         <v>595.6470695927186</v>
@@ -34147,7 +34147,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q41" t="n">
         <v>360.4902833647496</v>
@@ -34156,7 +34156,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34199,7 +34199,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
@@ -34208,7 +34208,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K42" t="n">
         <v>288.4168775622982</v>
@@ -34217,10 +34217,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O42" t="n">
         <v>424.9599466855526</v>
@@ -34235,10 +34235,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T42" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34299,7 +34299,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34311,16 +34311,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,16 +34357,16 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K44" t="n">
         <v>424.6341946041488</v>
@@ -34375,7 +34375,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N44" t="n">
         <v>595.6470695927186</v>
@@ -34384,7 +34384,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q44" t="n">
         <v>360.4902833647496</v>
@@ -34393,7 +34393,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34436,7 +34436,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
@@ -34445,7 +34445,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K45" t="n">
         <v>288.4168775622982</v>
@@ -34454,10 +34454,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O45" t="n">
         <v>424.9599466855526</v>
@@ -34472,10 +34472,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T45" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34536,7 +34536,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34548,16 +34548,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34775,7 +34775,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34790,10 +34790,10 @@
         <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
-        <v>401.1632560839187</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>220.2054057751866</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -34933,25 +34933,25 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35012,10 +35012,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770689</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624589</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35024,16 +35024,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
-        <v>54.37527471535667</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,7 +35094,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35109,7 +35109,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35170,19 +35170,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O8" t="n">
         <v>406.5635087530452</v>
@@ -35249,7 +35249,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35261,16 +35261,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>220.205405775187</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730626</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35410,13 +35410,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L11" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N11" t="n">
         <v>803.5809304081118</v>
@@ -35431,7 +35431,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K12" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504663</v>
+        <v>564.1615374009399</v>
       </c>
       <c r="N12" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O12" t="n">
-        <v>676.2260215178377</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P12" t="n">
-        <v>207.0934149315247</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q12" t="n">
-        <v>103.8510818313024</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,10 +35565,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L13" t="n">
         <v>250.2141868799285</v>
@@ -35580,13 +35580,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35647,13 +35647,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L14" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N14" t="n">
         <v>803.5809304081118</v>
@@ -35668,7 +35668,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35726,22 +35726,22 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K15" t="n">
-        <v>415.0406756005178</v>
+        <v>384.9870895382559</v>
       </c>
       <c r="L15" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P15" t="n">
-        <v>495.5025975092001</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q15" t="n">
         <v>298.0903205209232</v>
@@ -35802,10 +35802,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L16" t="n">
         <v>250.2141868799285</v>
@@ -35817,13 +35817,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35884,7 +35884,7 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L17" t="n">
         <v>708.6910667109072</v>
@@ -35905,7 +35905,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L18" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N18" t="n">
-        <v>756.5322523145245</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P18" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q18" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,10 +36039,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L19" t="n">
         <v>250.2141868799285</v>
@@ -36054,13 +36054,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36197,13 +36197,13 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L21" t="n">
-        <v>345.2951542341714</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
         <v>310.4243770504662</v>
@@ -36215,7 +36215,7 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P21" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q21" t="n">
         <v>298.0903205209232</v>
@@ -36358,13 +36358,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L23" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N23" t="n">
         <v>803.5809304081118</v>
@@ -36379,7 +36379,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,28 +36434,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L24" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
-        <v>564.1615374009399</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P24" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q24" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,10 +36513,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L25" t="n">
         <v>250.2141868799285</v>
@@ -36528,13 +36528,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36595,13 +36595,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L26" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N26" t="n">
         <v>803.5809304081118</v>
@@ -36616,7 +36616,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36680,22 +36680,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P27" t="n">
-        <v>484.7652115523313</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>80.6396602952062</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K28" t="n">
         <v>219.8343186595512</v>
@@ -36765,7 +36765,7 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O28" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P28" t="n">
         <v>246.5154907414414</v>
@@ -36853,7 +36853,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36987,10 +36987,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>80.63966029520621</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K31" t="n">
-        <v>219.8343186595513</v>
+        <v>219.8343186595512</v>
       </c>
       <c r="L31" t="n">
         <v>318.3460770095692</v>
@@ -37005,7 +37005,7 @@
         <v>304.3692416502436</v>
       </c>
       <c r="P31" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q31" t="n">
         <v>107.3575901015154</v>
@@ -37090,7 +37090,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,10 +37145,10 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L33" t="n">
         <v>249.2577049560243</v>
@@ -37157,13 +37157,13 @@
         <v>310.4243770504663</v>
       </c>
       <c r="N33" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O33" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P33" t="n">
-        <v>406.7164955186337</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
@@ -37224,10 +37224,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>80.63966029520621</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K34" t="n">
-        <v>219.8343186595513</v>
+        <v>219.8343186595512</v>
       </c>
       <c r="L34" t="n">
         <v>318.3460770095692</v>
@@ -37242,7 +37242,7 @@
         <v>304.3692416502436</v>
       </c>
       <c r="P34" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q34" t="n">
         <v>107.3575901015154</v>
@@ -37312,7 +37312,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37327,7 +37327,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349766</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,7 +37382,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
         <v>415.0406756005178</v>
@@ -37397,10 +37397,10 @@
         <v>333.1945733980129</v>
       </c>
       <c r="O36" t="n">
-        <v>378.4011515192551</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P36" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>80.63966029520616</v>
+        <v>80.6396602952062</v>
       </c>
       <c r="K37" t="n">
         <v>219.8343186595512</v>
@@ -37476,10 +37476,10 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O37" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P37" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q37" t="n">
         <v>107.3575901015154</v>
@@ -37543,13 +37543,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L38" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37564,7 +37564,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37628,22 +37628,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P39" t="n">
-        <v>484.7652115523311</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37710,7 +37710,7 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N40" t="n">
-        <v>341.4087679352443</v>
+        <v>341.4087679352442</v>
       </c>
       <c r="O40" t="n">
         <v>304.3692416502435</v>
@@ -37780,7 +37780,7 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109072</v>
@@ -37801,7 +37801,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.8253897034981</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37862,25 +37862,25 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
-        <v>429.2814066296115</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P42" t="n">
-        <v>525.5561835714618</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q42" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,25 +37935,25 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>80.6396602952062</v>
+        <v>80.63966029520613</v>
       </c>
       <c r="K43" t="n">
         <v>219.8343186595512</v>
       </c>
       <c r="L43" t="n">
-        <v>318.3460770095692</v>
+        <v>318.3460770095691</v>
       </c>
       <c r="M43" t="n">
         <v>342.4417313086132</v>
       </c>
       <c r="N43" t="n">
-        <v>341.4087679352443</v>
+        <v>341.4087679352442</v>
       </c>
       <c r="O43" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P43" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414413</v>
       </c>
       <c r="Q43" t="n">
         <v>107.3575901015154</v>
@@ -38017,13 +38017,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L44" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N44" t="n">
         <v>803.5809304081118</v>
@@ -38038,7 +38038,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349766</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38102,22 +38102,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P45" t="n">
-        <v>484.7652115523311</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>80.6396602952062</v>
+        <v>80.63966029520621</v>
       </c>
       <c r="K46" t="n">
         <v>219.8343186595512</v>
@@ -38187,7 +38187,7 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O46" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P46" t="n">
         <v>246.5154907414415</v>
